--- a/final_values.xlsx
+++ b/final_values.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KumarAnkita\Documents\trying_on_win\masterarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697C7B30-DD85-4ACB-BC05-A5567AD1B8D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB2B4E7-805E-4074-8304-6FE4AEA98BFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{598A56BC-134F-4A03-9053-1B8BF65CC2AF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
   <si>
     <t>opt-level = 0</t>
   </si>
@@ -96,25 +96,13 @@
     <t>Sum without constant Rcon and Sbox</t>
   </si>
   <si>
-    <t>Rust cpu cycles</t>
-  </si>
-  <si>
     <t>C CPU cycles</t>
-  </si>
-  <si>
-    <t>Rust NVM Size in Bytes</t>
   </si>
   <si>
     <t>C NVM Size in Bytes</t>
   </si>
   <si>
     <t>Stack Usage</t>
-  </si>
-  <si>
-    <t>C nvm size</t>
-  </si>
-  <si>
-    <t>c cpu cycles</t>
   </si>
   <si>
     <t>With keyexpansion in gen_cipher</t>
@@ -187,6 +175,15 @@
   </si>
   <si>
     <t>Rust</t>
+  </si>
+  <si>
+    <t>Rust CPU cycles</t>
+  </si>
+  <si>
+    <t>Rust NVM Size</t>
+  </si>
+  <si>
+    <t>C NVM size</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1309,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rust cpu cycles</c:v>
+                  <c:v>Rust CPU cycles</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1410,7 +1407,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Rust NVM Size in Bytes</c:v>
+                  <c:v>Rust NVM Size</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1702,6 +1699,754 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>CPU cycles with NVM Size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rust CPU cycles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$60:$A$65</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$62:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Oz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$60:$B$65</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$62:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6655</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15AE-4880-AE55-605801B09300}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C CPU cycles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$60:$A$65</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$62:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Oz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$D$60:$D$65</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$D$62:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-15AE-4880-AE55-605801B09300}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rust NVM Size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$60:$A$65</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$62:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Oz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$60:$C$65</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$C$62:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15AE-4880-AE55-605801B09300}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C NVM size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$A$60:$A$65</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$A$62:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>O2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>O3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Os</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Oz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$E$60:$E$65</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$E$62:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-15AE-4880-AE55-605801B09300}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="804321791"/>
+        <c:axId val="792243935"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="804321791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Optimisation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> levels</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="792243935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="792243935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Values</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="804321791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1822,6 +2567,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2830,6 +3615,509 @@
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3436,6 +4724,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1235075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1803401</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7588152C-8BCF-41D6-8CDA-CFC06ADF68A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3743,8 +5067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4A87F7-5CB2-4FF5-831D-9551F2A12BCE}">
   <dimension ref="A16:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B122" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3759,7 +5083,7 @@
   <sheetData>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -4000,7 +5324,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -4030,7 +5354,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B36">
         <v>16</v>
@@ -4050,7 +5374,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B37">
         <v>98</v>
@@ -4070,7 +5394,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B38">
         <v>24</v>
@@ -4081,7 +5405,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B39">
         <v>368</v>
@@ -4101,7 +5425,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B40">
         <v>318</v>
@@ -4121,7 +5445,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B41">
         <v>248</v>
@@ -4138,7 +5462,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B42">
         <v>66</v>
@@ -4152,7 +5476,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <v>26</v>
@@ -4183,16 +5507,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -4281,22 +5605,22 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="C59" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E59" s="6" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -4370,7 +5694,7 @@
         <v>1464</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -4408,7 +5732,7 @@
         <v>558</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -4427,10 +5751,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -4488,15 +5812,15 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
         <v>24</v>
-      </c>
-      <c r="B84" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -4554,7 +5878,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -4764,13 +6088,13 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -4846,13 +6170,13 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
